--- a/fuentes/contenidos/grado07/guion09/MA_07_09_CO (1).xlsx
+++ b/fuentes/contenidos/grado07/guion09/MA_07_09_CO (1).xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Desktop\ejemplos escalestas y cronogramas\Escaletas\Escaletas Matemáticas 7\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$P$1:$P$243</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="222">
   <si>
     <t>Asignatura</t>
   </si>
@@ -402,9 +397,6 @@
     <t>MODELACIÓN</t>
   </si>
   <si>
-    <t>RAZONAMIENTO</t>
-  </si>
-  <si>
     <t>COMUNICACIÓN</t>
   </si>
   <si>
@@ -420,9 +412,6 @@
     <t xml:space="preserve">Revisar y modificar lenguaje para adaptarlo. Incluir algunas situaciones más, las cuales se pueden expresar con expresiones algebraicas. Eliminar la parte de "Valor numérico". El recurso queda como una simple introducción al tema, dando ejemplos concretos y proponiendo práctica de los mismos. </t>
   </si>
   <si>
-    <t>1º ESO</t>
-  </si>
-  <si>
     <t>MT</t>
   </si>
   <si>
@@ -573,18 +562,6 @@
     <t>Recurso M7A-01</t>
   </si>
   <si>
-    <t>Van en cuaderno</t>
-  </si>
-  <si>
-    <t>No van en cuaderno</t>
-  </si>
-  <si>
-    <t>Aprovechados</t>
-  </si>
-  <si>
-    <t>Nuevos</t>
-  </si>
-  <si>
     <t>Sigue patones geomátricos</t>
   </si>
   <si>
@@ -636,9 +613,6 @@
     <t>Refuerza tu aprendizaje: Las operaciones entre monomios y binomios</t>
   </si>
   <si>
-    <t>Evaluacón</t>
-  </si>
-  <si>
     <t>Evaluación</t>
   </si>
   <si>
@@ -654,9 +628,6 @@
     <t>Fin de tema</t>
   </si>
   <si>
-    <t>Completa un texto sobre Los momonios</t>
-  </si>
-  <si>
     <t>Refuerza tu aprendizaje: Los monomios</t>
   </si>
   <si>
@@ -697,6 +668,24 @@
   </si>
   <si>
     <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Las expresiones algebraicas y las ecuaciones</t>
+  </si>
+  <si>
+    <t>MT_09_02</t>
+  </si>
+  <si>
+    <t>5 y 6</t>
+  </si>
+  <si>
+    <t>Identifica las partes de los monomios</t>
+  </si>
+  <si>
+    <t>Completa un texto sobre las partes de un monomio</t>
+  </si>
+  <si>
+    <t>La suma y la resta de monomios</t>
   </si>
 </sst>
 </file>
@@ -891,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -989,6 +978,42 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,12 +1023,33 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1031,12 +1077,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1048,42 +1088,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,7 +1149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1180,7 +1184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1389,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U247"/>
+  <dimension ref="A1:U243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:I26"/>
+    <sheetView tabSelected="1" topLeftCell="I4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,102 +1412,102 @@
     <col min="9" max="9" width="13.42578125" style="1" customWidth="1"/>
     <col min="10" max="14" width="13.42578125" customWidth="1"/>
     <col min="15" max="16" width="13.42578125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="67" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="68" customWidth="1"/>
-    <col min="19" max="19" width="29.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="42.28515625" style="68" customWidth="1"/>
-    <col min="21" max="21" width="21" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="41" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="42" customWidth="1"/>
+    <col min="19" max="19" width="29.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.28515625" style="48" customWidth="1"/>
+    <col min="21" max="21" width="21" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="14" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="50" t="s">
+      <c r="M1" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="37" t="s">
+      <c r="N1" s="69"/>
+      <c r="O1" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="41" t="s">
+      <c r="R1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="51" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="45"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="64"/>
       <c r="M2" s="15" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="58"/>
-      <c r="U2" s="57"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="52"/>
     </row>
     <row r="3" spans="1:21" s="22" customFormat="1" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -1516,12 +1520,12 @@
         <v>123</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="24"/>
       <c r="G3" s="25" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H3" s="20">
         <v>1</v>
@@ -1530,7 +1534,7 @@
         <v>20</v>
       </c>
       <c r="J3" s="26" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>20</v>
@@ -1543,25 +1547,25 @@
         <v>39</v>
       </c>
       <c r="O3" s="27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="60">
+      <c r="Q3" s="37">
         <v>6</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S3" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T3" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="U3" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S3" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T3" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="U3" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1575,12 +1579,12 @@
         <v>123</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="24"/>
       <c r="G4" s="25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H4" s="20">
         <v>2</v>
@@ -1589,7 +1593,7 @@
         <v>20</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>20</v>
@@ -1602,25 +1606,25 @@
         <v>22</v>
       </c>
       <c r="O4" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="60">
+      <c r="Q4" s="37">
         <v>6</v>
       </c>
-      <c r="R4" s="61" t="s">
+      <c r="R4" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S4" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T4" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="U4" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S4" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T4" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="U4" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1634,12 +1638,12 @@
         <v>123</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E5" s="33"/>
       <c r="F5" s="34"/>
       <c r="G5" s="35" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H5" s="20">
         <v>3</v>
@@ -1648,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>20</v>
@@ -1661,25 +1665,25 @@
         <v>39</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="60">
+      <c r="Q5" s="37">
         <v>6</v>
       </c>
-      <c r="R5" s="61" t="s">
+      <c r="R5" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S5" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T5" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="U5" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S5" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="U5" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1693,14 +1697,14 @@
         <v>123</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E6" s="33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="35" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H6" s="20">
         <v>4</v>
@@ -1709,7 +1713,7 @@
         <v>20</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>20</v>
@@ -1725,20 +1729,20 @@
       <c r="P6" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="60">
+      <c r="Q6" s="37">
         <v>6</v>
       </c>
-      <c r="R6" s="61" t="s">
+      <c r="R6" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S6" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T6" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="U6" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S6" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T6" s="62" t="s">
-        <v>213</v>
-      </c>
-      <c r="U6" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1766,7 +1770,7 @@
         <v>19</v>
       </c>
       <c r="J7" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>19</v>
@@ -1777,25 +1781,25 @@
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P7" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="R7" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="S7" s="63" t="s">
+      <c r="Q7" s="39">
+        <v>9</v>
+      </c>
+      <c r="R7" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="T7" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="T7" s="65" t="s">
-        <v>123</v>
-      </c>
-      <c r="U7" s="63" t="s">
-        <v>133</v>
+      <c r="U7" s="39" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1814,7 +1818,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H8" s="20">
         <v>6</v>
@@ -1823,7 +1827,7 @@
         <v>20</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>20</v>
@@ -1836,25 +1840,25 @@
         <v>119</v>
       </c>
       <c r="O8" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P8" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q8" s="60">
+      <c r="Q8" s="37">
         <v>6</v>
       </c>
-      <c r="R8" s="61" t="s">
+      <c r="R8" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S8" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="U8" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S8" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="U8" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1873,7 +1877,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H9" s="20">
         <v>7</v>
@@ -1882,7 +1886,7 @@
         <v>20</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>19</v>
@@ -1893,25 +1897,25 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P9" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R9" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S9" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="U9" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R9" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S9" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="U9" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1930,7 +1934,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H10" s="20">
         <v>8</v>
@@ -1939,7 +1943,7 @@
         <v>20</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>19</v>
@@ -1953,20 +1957,20 @@
       <c r="P10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="60" t="s">
+      <c r="Q10" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R10" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="U10" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R10" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S10" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T10" s="66" t="s">
-        <v>155</v>
-      </c>
-      <c r="U10" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1985,7 +1989,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H11" s="20">
         <v>9</v>
@@ -1994,7 +1998,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>19</v>
@@ -2005,25 +2009,25 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
       <c r="O11" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P11" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="Q11" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R11" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R11" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S11" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T11" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="U11" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2042,7 +2046,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H12" s="20">
         <v>10</v>
@@ -2051,7 +2055,7 @@
         <v>19</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>19</v>
@@ -2062,25 +2066,25 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="60" t="s">
+      <c r="Q12" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R12" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T12" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="U12" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R12" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S12" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T12" s="66" t="s">
-        <v>145</v>
-      </c>
-      <c r="U12" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2099,7 +2103,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H13" s="20">
         <v>11</v>
@@ -2108,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>19</v>
@@ -2119,25 +2123,25 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="P13" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="60" t="s">
+      <c r="Q13" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T13" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R13" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S13" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T13" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2154,11 +2158,11 @@
         <v>123</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="25" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H14" s="20">
         <v>12</v>
@@ -2167,7 +2171,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>19</v>
@@ -2181,19 +2185,21 @@
       <c r="P14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="60" t="s">
+      <c r="Q14" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R14" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T14" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="U14" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R14" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T14" s="66" t="s">
-        <v>153</v>
-      </c>
-      <c r="U14" s="60"/>
     </row>
     <row r="15" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -2206,21 +2212,21 @@
         <v>123</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E15" s="23"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H15" s="20">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>19</v>
@@ -2234,20 +2240,20 @@
       <c r="P15" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q15" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R15" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T15" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="U15" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R15" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S15" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T15" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="U15" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2261,21 +2267,21 @@
         <v>123</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E16" s="23"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H16" s="20">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>19</v>
@@ -2289,19 +2295,21 @@
       <c r="P16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q16" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R16" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S16" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="U16" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R16" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T16" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="U16" s="60"/>
     </row>
     <row r="17" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -2314,21 +2322,21 @@
         <v>123</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H17" s="20">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>19</v>
@@ -2342,19 +2350,21 @@
       <c r="P17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q17" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="U17" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R17" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S17" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T17" s="65" t="s">
-        <v>209</v>
-      </c>
-      <c r="U17" s="60"/>
     </row>
     <row r="18" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -2367,12 +2377,12 @@
         <v>123</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H18" s="20">
         <v>16</v>
@@ -2381,7 +2391,7 @@
         <v>19</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>20</v>
@@ -2394,25 +2404,25 @@
         <v>119</v>
       </c>
       <c r="O18" s="27" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q18" s="60">
+      <c r="Q18" s="37">
         <v>6</v>
       </c>
-      <c r="R18" s="61" t="s">
+      <c r="R18" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T18" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="U18" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S18" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T18" s="62" t="s">
-        <v>215</v>
-      </c>
-      <c r="U18" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2426,12 +2436,12 @@
         <v>123</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H19" s="20">
         <v>17</v>
@@ -2440,7 +2450,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="26" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>19</v>
@@ -2454,19 +2464,21 @@
       <c r="P19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q19" s="60" t="s">
+      <c r="Q19" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R19" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S19" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="U19" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="R19" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S19" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T19" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="U19" s="60"/>
     </row>
     <row r="20" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2479,12 +2491,12 @@
         <v>123</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H20" s="20">
         <v>18</v>
@@ -2493,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>19</v>
@@ -2507,20 +2519,20 @@
       <c r="P20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q20" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R20" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="U20" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R20" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S20" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T20" s="65" t="s">
-        <v>140</v>
-      </c>
-      <c r="U20" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2534,12 +2546,12 @@
         <v>123</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H21" s="20">
         <v>19</v>
@@ -2548,7 +2560,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>20</v>
@@ -2561,25 +2573,25 @@
         <v>22</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P21" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q21" s="60">
+      <c r="Q21" s="37">
         <v>6</v>
       </c>
-      <c r="R21" s="61" t="s">
+      <c r="R21" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T21" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="U21" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S21" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T21" s="62" t="s">
-        <v>211</v>
-      </c>
-      <c r="U21" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2593,12 +2605,12 @@
         <v>123</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H22" s="20">
         <v>20</v>
@@ -2607,7 +2619,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2623,20 +2635,20 @@
       <c r="P22" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q22" s="60">
+      <c r="Q22" s="37">
         <v>6</v>
       </c>
-      <c r="R22" s="61" t="s">
+      <c r="R22" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T22" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="U22" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S22" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T22" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="U22" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2650,12 +2662,12 @@
         <v>123</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E23" s="23"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H23" s="20">
         <v>21</v>
@@ -2664,7 +2676,7 @@
         <v>19</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>19</v>
@@ -2675,25 +2687,25 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P23" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q23" s="60" t="s">
+      <c r="Q23" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R23" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S23" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="47" t="s">
+        <v>160</v>
+      </c>
+      <c r="U23" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R23" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S23" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T23" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="U23" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2707,14 +2719,12 @@
         <v>123</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>150</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="24"/>
       <c r="G24" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H24" s="20">
         <v>22</v>
@@ -2723,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>19</v>
@@ -2734,25 +2744,25 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P24" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R24" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S24" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T24" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="U24" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R24" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S24" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T24" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="U24" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2766,12 +2776,12 @@
         <v>123</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E25" s="23"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H25" s="20">
         <v>23</v>
@@ -2780,7 +2790,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>19</v>
@@ -2791,25 +2801,25 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q25" s="60" t="s">
+      <c r="Q25" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="R25" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="S25" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="T25" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="U25" s="37" t="s">
         <v>131</v>
-      </c>
-      <c r="R25" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="S25" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="T25" s="66" t="s">
-        <v>172</v>
-      </c>
-      <c r="U25" s="60" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2823,11 +2833,9 @@
         <v>123</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>10</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="24"/>
       <c r="G26" s="25" t="s">
         <v>10</v>
@@ -2844,14 +2852,12 @@
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="27"/>
-      <c r="P26" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="63"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="63"/>
+      <c r="P26" s="31"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="39"/>
     </row>
     <row r="27" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
@@ -2864,14 +2870,12 @@
         <v>123</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>203</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E27" s="23"/>
       <c r="F27" s="24"/>
       <c r="G27" s="25" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="H27" s="20">
         <v>25</v>
@@ -2880,7 +2884,7 @@
         <v>20</v>
       </c>
       <c r="J27" s="26" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>20</v>
@@ -2893,25 +2897,25 @@
         <v>33</v>
       </c>
       <c r="O27" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P27" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" s="60">
+      <c r="Q27" s="37">
         <v>6</v>
       </c>
-      <c r="R27" s="61" t="s">
+      <c r="R27" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S27" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T27" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="U27" s="37" t="s">
         <v>178</v>
-      </c>
-      <c r="S27" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T27" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="U27" s="60" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:21" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2925,14 +2929,12 @@
         <v>123</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>174</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="E28" s="23"/>
       <c r="F28" s="24"/>
       <c r="G28" s="25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" s="20">
         <v>26</v>
@@ -2941,7 +2943,7 @@
         <v>20</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>20</v>
@@ -2954,458 +2956,230 @@
         <v>53</v>
       </c>
       <c r="O28" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="P28" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Q28" s="60">
+      <c r="Q28" s="37">
         <v>6</v>
       </c>
-      <c r="R28" s="61" t="s">
+      <c r="R28" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="S28" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="T28" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="U28" s="37" t="s">
         <v>178</v>
       </c>
-      <c r="S28" s="60" t="s">
-        <v>179</v>
-      </c>
-      <c r="T28" s="62" t="s">
-        <v>217</v>
-      </c>
-      <c r="U28" s="60" t="s">
-        <v>180</v>
-      </c>
     </row>
     <row r="29" spans="1:21" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="U29" s="60"/>
-    </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="37"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="53" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="56" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="59" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="76" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="79" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="140" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="141" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="142" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="143" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="144" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="145" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="146" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="147" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="148" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="149" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="150" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="151" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="152" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="164" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="165" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="166" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="167" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="168" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="169" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="170" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="171" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="172" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="173" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="174" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="175" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="176" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="177" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="178" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="179" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="180" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="181" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="182" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="183" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="184" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="185" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="186" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="187" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="188" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="189" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="190" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="191" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="192" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="193" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="194" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="195" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="196" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="197" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="198" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="199" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="200" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="201" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="202" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="203" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="204" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="205" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="206" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="207" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="208" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="209" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="210" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="211" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="212" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="213" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="214" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="215" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="216" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="217" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="218" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="219" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="220" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="221" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="222" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="223" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="224" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="225" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="226" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="227" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="228" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="229" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="230" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="231" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="232" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="233" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="234" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="235" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="236" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="237" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="238" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="239" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="240" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:17" ht="2.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B243" t="s">
         <v>124</v>
       </c>
       <c r="C243" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D243" t="s">
-        <v>127</v>
-      </c>
-      <c r="E243" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H246" s="1">
-        <f>COUNTIF(I7:I28,"SI")</f>
-        <v>5</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K246">
-        <f>COUNTIF(K7:K28,"SI")</f>
-        <v>15</v>
-      </c>
-      <c r="L246" t="s">
-        <v>184</v>
-      </c>
-      <c r="P246" s="1">
-        <f>COUNTIF(P7:P28,"SI")</f>
-        <v>19</v>
-      </c>
-      <c r="Q246" s="67" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H247" s="1">
-        <f>COUNTIF(I7:I28,"NO")</f>
-        <v>17</v>
-      </c>
-      <c r="I247" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K247">
-        <f>COUNTIF(K7:K28,"NO")</f>
-        <v>6</v>
-      </c>
-      <c r="L247" t="s">
-        <v>185</v>
-      </c>
-      <c r="P247" s="1">
-        <f>COUNTIF(P7:P28,"NO")</f>
-        <v>3</v>
-      </c>
-      <c r="Q247" s="67" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="B1:B2"/>
@@ -3486,7 +3260,7 @@
   <dimension ref="A1:O133"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
